--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246172.8590932988</v>
+        <v>-248622.0559845979</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>292.8560246861799</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>50.2347802542153</v>
+        <v>35.20668280448514</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0138334144184</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>134.7466378365502</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>18.74495671803751</v>
+        <v>121.1059660434838</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>122.1695696835037</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>86.10567404107969</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>83.41905814111237</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>310.8866908786142</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135.3030241068814</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>159.9967189074651</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710044</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>112.6165943385665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>51.04722446792741</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229391</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>51.36569740309572</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>65.67353929277246</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>11.79076481679217</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819384</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936182</v>
       </c>
       <c r="H22" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>60.64713141731143</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1928.325554477405</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C2" t="n">
-        <v>1559.363037536994</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.097338930243</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E2" t="n">
-        <v>815.309086331999</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>404.3231815423914</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2705.064726517339</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y2" t="n">
-        <v>2314.925394541527</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.6877057396768</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4525,13 +4525,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812242</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>403.4802848832069</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.6877057396768</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.766690866869</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.804173926457</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.804173926457</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E5" t="n">
-        <v>794.0159213282132</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0300165386056</v>
+        <v>528.4218742137291</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501177</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>751.9508228902781</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>601.8341834779424</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>454.944235980032</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>287.2413993547509</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>833.9115774938616</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>544.4944074569011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>544.4944074569011</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>544.4944074569011</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2244.12194900241</v>
+        <v>2001.643962205202</v>
       </c>
       <c r="C8" t="n">
-        <v>1875.159432061998</v>
+        <v>1632.68144526479</v>
       </c>
       <c r="D8" t="n">
-        <v>1516.893733455248</v>
+        <v>1274.41574665804</v>
       </c>
       <c r="E8" t="n">
-        <v>1131.105480857004</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>720.1195760673961</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539438</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066532</v>
+        <v>2388.243802269324</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7578170212613</v>
+        <v>501.2115707469945</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>477.7578170212613</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U10" t="n">
-        <v>477.7578170212613</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="V10" t="n">
-        <v>477.7578170212613</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="W10" t="n">
-        <v>477.7578170212613</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="X10" t="n">
-        <v>477.7578170212613</v>
+        <v>501.2115707469945</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.7578170212613</v>
+        <v>501.2115707469945</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192579</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245722</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403307</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>748.6820719508378</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="C13" t="n">
-        <v>748.6820719508378</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="D13" t="n">
-        <v>598.565432538502</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687994</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131319</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.314376062933</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936162</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>1018.909846477607</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.027877484368</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377026</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309951</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309951</v>
       </c>
       <c r="S13" t="n">
-        <v>1257.700706964857</v>
+        <v>1440.555541309951</v>
       </c>
       <c r="T13" t="n">
-        <v>1038.099241987798</v>
+        <v>1440.555541309951</v>
       </c>
       <c r="U13" t="n">
-        <v>1038.099241987798</v>
+        <v>1151.480314654149</v>
       </c>
       <c r="V13" t="n">
-        <v>1038.099241987798</v>
+        <v>896.7958264482623</v>
       </c>
       <c r="W13" t="n">
-        <v>748.6820719508378</v>
+        <v>607.3786564113018</v>
       </c>
       <c r="X13" t="n">
-        <v>748.6820719508378</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="Y13" t="n">
-        <v>748.6820719508378</v>
+        <v>555.8158034133953</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5267,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,34 +5340,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784141</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780505072</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381715</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557784</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748851</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2395.078540748851</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748851</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093049</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1851.318825887162</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1561.901655850201</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952184</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808654</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2380.626175203723</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2380.626175203723</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>2091.550948547921</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.866460342034</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407056</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263526</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>198.0274703142528</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>411.9631215597619</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2385.703354875905</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="29">
@@ -6443,22 +6443,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>121.6001081629228</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>118.0657009672735</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>334.5244178739839</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.23298768420942</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>33.81736830800263</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272988</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>174.6624309211097</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-5.219052476067773e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>15.00954930702598</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856725</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>115.3527467088721</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>213.918890572245</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>62.35543909865069</v>
       </c>
       <c r="H22" t="n">
-        <v>72.11969353038562</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462248</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>5.728115292810259</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1040189.545283266</v>
+        <v>1040189.545283267</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1076947.240167788</v>
+        <v>1076947.240167787</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1125075.173699067</v>
+        <v>1125075.173699066</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1125075.173699067</v>
+        <v>1125075.173699066</v>
       </c>
     </row>
     <row r="15">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283688.057804527</v>
+        <v>283688.0578045272</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
-        <v>293712.8836821239</v>
+        <v>293712.8836821238</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
@@ -26341,19 +26341,19 @@
         <v>302679.9748837522</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073541</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.869591415015748e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.641531071072677e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56759.27587051049</v>
+        <v>56759.2758705109</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835447</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26433,22 +26433,22 @@
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189197</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.583971892</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="L4" t="n">
-        <v>16046.58397189201</v>
-      </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26457,7 +26457,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498545</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1209749.904354969</v>
+        <v>-1209911.255060933</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336605</v>
+        <v>106359.9790336603</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336601</v>
+        <v>106359.9790336602</v>
       </c>
       <c r="E6" t="n">
-        <v>-133583.4961578218</v>
+        <v>-133678.0146912675</v>
       </c>
       <c r="F6" t="n">
-        <v>185510.861087953</v>
+        <v>185476.123162517</v>
       </c>
       <c r="G6" t="n">
-        <v>185510.861087953</v>
+        <v>185476.1231625173</v>
       </c>
       <c r="H6" t="n">
-        <v>185510.8610879531</v>
+        <v>185476.1231625172</v>
       </c>
       <c r="I6" t="n">
-        <v>185510.8610879533</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="J6" t="n">
-        <v>-32020.34130932439</v>
+        <v>-32055.07923476004</v>
       </c>
       <c r="K6" t="n">
-        <v>185510.8610879531</v>
+        <v>185476.1231625173</v>
       </c>
       <c r="L6" t="n">
-        <v>185510.861087953</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="M6" t="n">
-        <v>100455.8331524413</v>
+        <v>100421.0952270059</v>
       </c>
       <c r="N6" t="n">
-        <v>185510.861087953</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="O6" t="n">
-        <v>185510.861087953</v>
+        <v>185476.1231625172</v>
       </c>
       <c r="P6" t="n">
-        <v>161261.3866165733</v>
+        <v>161261.3866165734</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26966,16 +26966,16 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483745</v>
       </c>
       <c r="F3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>243.6727836080848</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>319.4963204242537</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>11.68732481001894</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>392.1767689354159</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>22.58544523081709</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,10 +27831,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>166.0319692827483</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>298.5113119311494</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100.0350347748393</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>31.94379699174647</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.55223036870407</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-8.27461264024969e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-5.540917888202e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543376</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.080820443724</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997857</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992795</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194022994</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649823</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775768</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915992</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454454</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401627</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925837</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214678</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
